--- a/data/nzd0071/nzd0071.xlsx
+++ b/data/nzd0071/nzd0071.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F353"/>
+  <dimension ref="A1:F358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8755,6 +8755,126 @@
       <c r="F353" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>369.21</v>
+      </c>
+      <c r="C354" t="n">
+        <v>379.4382352941177</v>
+      </c>
+      <c r="D354" t="n">
+        <v>381.54</v>
+      </c>
+      <c r="E354" t="n">
+        <v>386.06</v>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>366.76</v>
+      </c>
+      <c r="C355" t="n">
+        <v>373.6694117647058</v>
+      </c>
+      <c r="D355" t="n">
+        <v>380.435</v>
+      </c>
+      <c r="E355" t="n">
+        <v>386.27</v>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>370.8566666666667</v>
+      </c>
+      <c r="C356" t="n">
+        <v>368.9864705882353</v>
+      </c>
+      <c r="D356" t="n">
+        <v>388.105</v>
+      </c>
+      <c r="E356" t="n">
+        <v>388.6833333333333</v>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>371.6166666666667</v>
+      </c>
+      <c r="C357" t="n">
+        <v>376.2788235294118</v>
+      </c>
+      <c r="D357" t="n">
+        <v>387.755</v>
+      </c>
+      <c r="E357" t="n">
+        <v>387.6633333333334</v>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>369.7366666666667</v>
+      </c>
+      <c r="C358" t="n">
+        <v>382.2152941176471</v>
+      </c>
+      <c r="D358" t="n">
+        <v>383.16</v>
+      </c>
+      <c r="E358" t="n">
+        <v>393.9833333333333</v>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -8769,7 +8889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B377"/>
+  <dimension ref="A1:B382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12547,6 +12667,56 @@
       </c>
       <c r="B377" t="n">
         <v>0.68</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>-0.32</v>
       </c>
     </row>
   </sheetData>
@@ -12715,28 +12885,28 @@
         <v>0.0625</v>
       </c>
       <c r="I2" t="n">
-        <v>0.12071220681053</v>
+        <v>0.1176806094940291</v>
       </c>
       <c r="J2" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="K2" t="n">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01080853149366701</v>
+        <v>0.01063086362559407</v>
       </c>
       <c r="M2" t="n">
-        <v>6.331339415677943</v>
+        <v>6.253795154473325</v>
       </c>
       <c r="N2" t="n">
-        <v>66.48109328198466</v>
+        <v>65.48933650026486</v>
       </c>
       <c r="O2" t="n">
-        <v>8.153593887482051</v>
+        <v>8.092548208090259</v>
       </c>
       <c r="P2" t="n">
-        <v>367.5132337504705</v>
+        <v>367.5436747769195</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -12792,28 +12962,28 @@
         <v>0.097</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08225119517673424</v>
+        <v>0.07358956533018102</v>
       </c>
       <c r="J3" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="K3" t="n">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006454009960900176</v>
+        <v>0.005296870063772663</v>
       </c>
       <c r="M3" t="n">
-        <v>5.642525861652518</v>
+        <v>5.619047429759268</v>
       </c>
       <c r="N3" t="n">
-        <v>52.09106269377995</v>
+        <v>51.75986033316978</v>
       </c>
       <c r="O3" t="n">
-        <v>7.217413850804174</v>
+        <v>7.194432592857464</v>
       </c>
       <c r="P3" t="n">
-        <v>376.9554008931839</v>
+        <v>377.0423727901273</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -12869,28 +13039,28 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1056710572431908</v>
+        <v>0.09497802751410615</v>
       </c>
       <c r="J4" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="K4" t="n">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009837610865330526</v>
+        <v>0.008175811567547542</v>
       </c>
       <c r="M4" t="n">
-        <v>5.683618923574615</v>
+        <v>5.655607475243974</v>
       </c>
       <c r="N4" t="n">
-        <v>55.5843736864021</v>
+        <v>55.09928414190347</v>
       </c>
       <c r="O4" t="n">
-        <v>7.455492853353298</v>
+        <v>7.422889204474459</v>
       </c>
       <c r="P4" t="n">
-        <v>385.0773111009839</v>
+        <v>385.1851563709144</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -12946,28 +13116,28 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06161453029679564</v>
+        <v>0.06185395032924701</v>
       </c>
       <c r="J5" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="K5" t="n">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003748742069358713</v>
+        <v>0.003895149455337643</v>
       </c>
       <c r="M5" t="n">
-        <v>5.536074626173876</v>
+        <v>5.487614721390934</v>
       </c>
       <c r="N5" t="n">
-        <v>50.02016226477721</v>
+        <v>49.40889140617474</v>
       </c>
       <c r="O5" t="n">
-        <v>7.072493355583815</v>
+        <v>7.029145851821168</v>
       </c>
       <c r="P5" t="n">
-        <v>386.9033722031994</v>
+        <v>386.9007750131431</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -13004,7 +13174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F353"/>
+  <dimension ref="A1:F358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23992,6 +24162,166 @@
         </is>
       </c>
     </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>-35.42908881672268,174.43154515312224</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>-35.42978401870392,174.43133480096944</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>-35.43046295781789,174.43117567903502</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>-35.43114340832603,174.43133764052175</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>-35.429081062939105,174.4315198857991</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>-35.42976968552751,174.4312737221724</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>-35.43046264376222,174.43116351415233</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>-35.43114314422446,174.4313399309506</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>-35.429094028106164,174.43156213551623</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>-35.42975805030327,174.43122414042935</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>-35.43046482365278,174.431247952751</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>-35.431140109149204,174.43136625270353</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>-35.429096433359234,174.43156997354492</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>-35.42977616885664,174.43130134994016</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>-35.43046472418058,174.4312440996206</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>-35.431141391930325,174.43135512776402</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>-35.42909048352171,174.4315505847379</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>-35.429790918552584,174.4313642037504</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>-35.43046341824119,174.4311935135238</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>-35.43113344370155,174.43142405875554</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0071/nzd0071.xlsx
+++ b/data/nzd0071/nzd0071.xlsx
@@ -12730,7 +12730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12821,35 +12821,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -12908,27 +12913,28 @@
       <c r="P2" t="n">
         <v>367.5436747769195</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.42773747194963 -35.427920276310275, 174.43728788717547 -35.43085091183094)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.4277374719496</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.42792027631027</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.4372878871755</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.43085091183094</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.4325126795625</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.42938559407061</v>
       </c>
     </row>
@@ -12985,27 +12991,28 @@
       <c r="P3" t="n">
         <v>377.0423727901273</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.42731745203199 -35.42884120227139, 174.43712279556854 -35.43114210518644)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.427317452032</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.42884120227139</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.4371227955685</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.43114210518644</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.4322201238003</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.42999165372892</v>
       </c>
     </row>
@@ -13062,27 +13069,28 @@
       <c r="P4" t="n">
         <v>385.1851563709144</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.42697532975103 -35.43035444607725, 174.43717190926492 -35.43061761030843)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.426975329751</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.43035444607725</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.4371719092649</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.43061761030843</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.432073619508</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.43048602819285</v>
       </c>
     </row>
@@ -13139,27 +13147,28 @@
       <c r="P5" t="n">
         <v>386.9007750131431</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.42712693187588 -35.43162885473417, 174.43722857975027 -35.430463995268674)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.4271269318759</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.43162885473417</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.4372285797503</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.43046399526867</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.4321777558131</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.43104642500143</v>
       </c>
     </row>

--- a/data/nzd0071/nzd0071.xlsx
+++ b/data/nzd0071/nzd0071.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F358"/>
+  <dimension ref="A1:F363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8873,6 +8873,120 @@
         <v>393.9833333333333</v>
       </c>
       <c r="F358" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>368.7</v>
+      </c>
+      <c r="C359" t="n">
+        <v>371.8258823529412</v>
+      </c>
+      <c r="D359" t="n">
+        <v>382.995</v>
+      </c>
+      <c r="E359" t="n">
+        <v>379.37</v>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>370.5966666666667</v>
+      </c>
+      <c r="C360" t="n">
+        <v>372.1082352941176</v>
+      </c>
+      <c r="D360" t="n">
+        <v>388.805</v>
+      </c>
+      <c r="E360" t="n">
+        <v>381.9033333333334</v>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>368.5033333333333</v>
+      </c>
+      <c r="C361" t="n">
+        <v>389.7064705882353</v>
+      </c>
+      <c r="D361" t="n">
+        <v>381.69</v>
+      </c>
+      <c r="E361" t="n">
+        <v>390.7066666666666</v>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>365.6266666666667</v>
+      </c>
+      <c r="C362" t="inlineStr"/>
+      <c r="D362" t="inlineStr"/>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>363.31</v>
+      </c>
+      <c r="C363" t="n">
+        <v>373.5729411764706</v>
+      </c>
+      <c r="D363" t="n">
+        <v>387.875</v>
+      </c>
+      <c r="E363" t="n">
+        <v>382.59</v>
+      </c>
+      <c r="F363" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8889,7 +9003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B382"/>
+  <dimension ref="A1:B387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12717,6 +12831,56 @@
       </c>
       <c r="B382" t="n">
         <v>-0.32</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -12890,28 +13054,28 @@
         <v>0.0625</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1176806094940291</v>
+        <v>0.1075424101823251</v>
       </c>
       <c r="J2" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K2" t="n">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01063086362559407</v>
+        <v>0.009163986197921026</v>
       </c>
       <c r="M2" t="n">
-        <v>6.253795154473325</v>
+        <v>6.202676181422329</v>
       </c>
       <c r="N2" t="n">
-        <v>65.48933650026486</v>
+        <v>64.72731323786611</v>
       </c>
       <c r="O2" t="n">
-        <v>8.092548208090259</v>
+        <v>8.045328659406408</v>
       </c>
       <c r="P2" t="n">
-        <v>367.5436747769195</v>
+        <v>367.6469139130282</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12968,28 +13132,28 @@
         <v>0.097</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07358956533018102</v>
+        <v>0.06863536080622444</v>
       </c>
       <c r="J3" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K3" t="n">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005296870063772663</v>
+        <v>0.004665610498126305</v>
       </c>
       <c r="M3" t="n">
-        <v>5.619047429759268</v>
+        <v>5.637735330372998</v>
       </c>
       <c r="N3" t="n">
-        <v>51.75986033316978</v>
+        <v>51.85718249167353</v>
       </c>
       <c r="O3" t="n">
-        <v>7.194432592857464</v>
+        <v>7.201193129730207</v>
       </c>
       <c r="P3" t="n">
-        <v>377.0423727901273</v>
+        <v>377.0926444540025</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13046,28 +13210,28 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09497802751410615</v>
+        <v>0.08960385829985028</v>
       </c>
       <c r="J4" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K4" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008175811567547542</v>
+        <v>0.007448717278947914</v>
       </c>
       <c r="M4" t="n">
-        <v>5.655607475243974</v>
+        <v>5.625525368769814</v>
       </c>
       <c r="N4" t="n">
-        <v>55.09928414190347</v>
+        <v>54.63150693333277</v>
       </c>
       <c r="O4" t="n">
-        <v>7.422889204474459</v>
+        <v>7.391312937045269</v>
       </c>
       <c r="P4" t="n">
-        <v>385.1851563709144</v>
+        <v>385.2398766160645</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13124,28 +13288,28 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06185395032924701</v>
+        <v>0.05023351220673827</v>
       </c>
       <c r="J5" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K5" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003895149455337643</v>
+        <v>0.002615256160823032</v>
       </c>
       <c r="M5" t="n">
-        <v>5.487614721390934</v>
+        <v>5.489758989279202</v>
       </c>
       <c r="N5" t="n">
-        <v>49.40889140617474</v>
+        <v>49.30716439390324</v>
       </c>
       <c r="O5" t="n">
-        <v>7.029145851821168</v>
+        <v>7.021906037102977</v>
       </c>
       <c r="P5" t="n">
-        <v>386.9007750131431</v>
+        <v>387.0186450630291</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13183,7 +13347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F358"/>
+  <dimension ref="A1:F363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24331,6 +24495,154 @@
         </is>
       </c>
     </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>-35.429087202670225,174.43153989339336</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>-35.429765105101296,174.43125420336878</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>-35.43046337134634,174.4311916970481</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>-35.431151821825274,174.4312646739931</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>-35.4290932052563,174.43155945408546</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>-35.42976580663456,174.43125719284717</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>-35.43046502259681,174.43125565901175</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>-35.43114863585164,174.43129230456893</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>-35.429086580257774,174.43153786513196</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>-35.42980953100783,174.43144351841434</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>-35.43046300044979,174.43117733037656</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>-35.43113756454446,174.43138832080135</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>-35.429077476153026,174.43150819751514</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr"/>
+      <c r="D362" t="inlineStr"/>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>-35.42907014433672,174.43148430529075</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>-35.42976944583714,174.43127270076718</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>-35.43046475828534,174.43124542069387</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>-35.431147772284014,174.43129979390883</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0071/nzd0071.xlsx
+++ b/data/nzd0071/nzd0071.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F363"/>
+  <dimension ref="A1:F366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8989,6 +8989,78 @@
       <c r="F363" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:48+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>366.3266666666667</v>
+      </c>
+      <c r="C364" t="n">
+        <v>386.8164705882353</v>
+      </c>
+      <c r="D364" t="n">
+        <v>386.575</v>
+      </c>
+      <c r="E364" t="n">
+        <v>395.4333333333333</v>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>362.8633333333333</v>
+      </c>
+      <c r="C365" t="n">
+        <v>374.3547058823529</v>
+      </c>
+      <c r="D365" t="n">
+        <v>387.68</v>
+      </c>
+      <c r="E365" t="n">
+        <v>388.3566666666666</v>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>367.9466666666667</v>
+      </c>
+      <c r="C366" t="n">
+        <v>374.6305882352942</v>
+      </c>
+      <c r="D366" t="n">
+        <v>394.945</v>
+      </c>
+      <c r="E366" t="n">
+        <v>391.7333333333333</v>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -9003,7 +9075,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B387"/>
+  <dimension ref="A1:B391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12881,6 +12953,46 @@
       </c>
       <c r="B387" t="n">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -13054,28 +13166,28 @@
         <v>0.0625</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1075424101823251</v>
+        <v>0.09882143734231016</v>
       </c>
       <c r="J2" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K2" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009163986197921026</v>
+        <v>0.007874369921985536</v>
       </c>
       <c r="M2" t="n">
-        <v>6.202676181422329</v>
+        <v>6.184223479526405</v>
       </c>
       <c r="N2" t="n">
-        <v>64.72731323786611</v>
+        <v>64.36935253240794</v>
       </c>
       <c r="O2" t="n">
-        <v>8.045328659406408</v>
+        <v>8.023051323057079</v>
       </c>
       <c r="P2" t="n">
-        <v>367.6469139130282</v>
+        <v>367.7360471451946</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13132,28 +13244,28 @@
         <v>0.097</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06863536080622444</v>
+        <v>0.06817756977160058</v>
       </c>
       <c r="J3" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K3" t="n">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004665610498126305</v>
+        <v>0.004663847859643355</v>
       </c>
       <c r="M3" t="n">
-        <v>5.637735330372998</v>
+        <v>5.636831496893551</v>
       </c>
       <c r="N3" t="n">
-        <v>51.85718249167353</v>
+        <v>51.70405713312437</v>
       </c>
       <c r="O3" t="n">
-        <v>7.201193129730207</v>
+        <v>7.190553325935659</v>
       </c>
       <c r="P3" t="n">
-        <v>377.0926444540025</v>
+        <v>377.0973886270845</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13210,28 +13322,28 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08960385829985028</v>
+        <v>0.09344423737490573</v>
       </c>
       <c r="J4" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K4" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007448717278947914</v>
+        <v>0.008224850206897116</v>
       </c>
       <c r="M4" t="n">
-        <v>5.625525368769814</v>
+        <v>5.601287255747524</v>
       </c>
       <c r="N4" t="n">
-        <v>54.63150693333277</v>
+        <v>54.32302756999037</v>
       </c>
       <c r="O4" t="n">
-        <v>7.391312937045269</v>
+        <v>7.37041569858786</v>
       </c>
       <c r="P4" t="n">
-        <v>385.2398766160645</v>
+        <v>385.200457258733</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13288,28 +13400,28 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05023351220673827</v>
+        <v>0.0564881151123655</v>
       </c>
       <c r="J5" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K5" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002615256160823032</v>
+        <v>0.003356614303201888</v>
       </c>
       <c r="M5" t="n">
-        <v>5.489758989279202</v>
+        <v>5.473756025938131</v>
       </c>
       <c r="N5" t="n">
-        <v>49.30716439390324</v>
+        <v>49.05864512880343</v>
       </c>
       <c r="O5" t="n">
-        <v>7.021906037102977</v>
+        <v>7.004187685149751</v>
       </c>
       <c r="P5" t="n">
-        <v>387.0186450630291</v>
+        <v>386.9548509128264</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13347,7 +13459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F363"/>
+  <dimension ref="A1:F366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24643,6 +24755,102 @@
         </is>
       </c>
     </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:48+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>-35.42907969152104,174.43151541674922</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>-35.42980235056711,174.43141291982803</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>-35.43046438881623,174.43123110906683</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>-35.4311316201309,174.43143987361697</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>-35.429068730719784,174.4314796987329</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>-35.429771388205864,174.43128097788647</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>-35.43046470286509,174.43124327394983</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>-35.43114051997464,174.43136268981445</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>-35.42908481851386,174.43153212412102</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>-35.42977207366167,174.43128389885644</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>-35.43046676759914,174.43132325392844</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>-35.431136273376076,174.4313995184517</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0071/nzd0071.xlsx
+++ b/data/nzd0071/nzd0071.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18543,7 +18543,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-35.429112151886315,174.43162119576112</t>
+          <t>-35.42911215188631,174.43162119576112</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">

--- a/data/nzd0071/nzd0071.xlsx
+++ b/data/nzd0071/nzd0071.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F366"/>
+  <dimension ref="A1:F369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9061,6 +9061,78 @@
       <c r="F366" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>359.0766666666667</v>
+      </c>
+      <c r="C367" t="n">
+        <v>378.4835294117647</v>
+      </c>
+      <c r="D367" t="n">
+        <v>385.245</v>
+      </c>
+      <c r="E367" t="n">
+        <v>391.3533333333333</v>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>359.6766666666667</v>
+      </c>
+      <c r="C368" t="n">
+        <v>378.5717647058824</v>
+      </c>
+      <c r="D368" t="n">
+        <v>390.99</v>
+      </c>
+      <c r="E368" t="n">
+        <v>395.2633333333333</v>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>360.4233333333333</v>
+      </c>
+      <c r="C369" t="n">
+        <v>377.5764705882353</v>
+      </c>
+      <c r="D369" t="n">
+        <v>390.06</v>
+      </c>
+      <c r="E369" t="n">
+        <v>393.0566666666667</v>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -9075,7 +9147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B391"/>
+  <dimension ref="A1:B394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12993,6 +13065,36 @@
       </c>
       <c r="B391" t="n">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -13166,28 +13268,28 @@
         <v>0.0625</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09882143734231016</v>
+        <v>0.07952168159878405</v>
       </c>
       <c r="J2" t="n">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K2" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007874369921985536</v>
+        <v>0.00513453263798358</v>
       </c>
       <c r="M2" t="n">
-        <v>6.184223479526405</v>
+        <v>6.21172370466658</v>
       </c>
       <c r="N2" t="n">
-        <v>64.36935253240794</v>
+        <v>64.77528982708451</v>
       </c>
       <c r="O2" t="n">
-        <v>8.023051323057079</v>
+        <v>8.048309749698038</v>
       </c>
       <c r="P2" t="n">
-        <v>367.7360471451946</v>
+        <v>367.9345609125701</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13244,28 +13346,28 @@
         <v>0.097</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06817756977160058</v>
+        <v>0.06707084808633176</v>
       </c>
       <c r="J3" t="n">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K3" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004663847859643355</v>
+        <v>0.004597360718431087</v>
       </c>
       <c r="M3" t="n">
-        <v>5.636831496893551</v>
+        <v>5.593991696251471</v>
       </c>
       <c r="N3" t="n">
-        <v>51.70405713312437</v>
+        <v>51.27352600033398</v>
       </c>
       <c r="O3" t="n">
-        <v>7.190553325935659</v>
+        <v>7.160553470251722</v>
       </c>
       <c r="P3" t="n">
-        <v>377.0973886270845</v>
+        <v>377.1087644990005</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13322,28 +13424,28 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09344423737490573</v>
+        <v>0.09543294982305191</v>
       </c>
       <c r="J4" t="n">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K4" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008224850206897116</v>
+        <v>0.008725585896797949</v>
       </c>
       <c r="M4" t="n">
-        <v>5.601287255747524</v>
+        <v>5.57668945393532</v>
       </c>
       <c r="N4" t="n">
-        <v>54.32302756999037</v>
+        <v>53.92831298878181</v>
       </c>
       <c r="O4" t="n">
-        <v>7.37041569858786</v>
+        <v>7.343589925151173</v>
       </c>
       <c r="P4" t="n">
-        <v>385.200457258733</v>
+        <v>385.1799090501212</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13400,28 +13502,28 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0564881151123655</v>
+        <v>0.06489131034889163</v>
       </c>
       <c r="J5" t="n">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K5" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003356614303201888</v>
+        <v>0.004489725997087968</v>
       </c>
       <c r="M5" t="n">
-        <v>5.473756025938131</v>
+        <v>5.469527956625567</v>
       </c>
       <c r="N5" t="n">
-        <v>49.05864512880343</v>
+        <v>48.85352453318011</v>
       </c>
       <c r="O5" t="n">
-        <v>7.004187685149751</v>
+        <v>6.989529636047057</v>
       </c>
       <c r="P5" t="n">
-        <v>386.9548509128264</v>
+        <v>386.8685782394018</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13459,7 +13561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F366"/>
+  <dimension ref="A1:F369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24851,6 +24953,102 @@
         </is>
       </c>
     </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>-35.42905674661673,174.431440646129</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>-35.429781646650895,174.43132469279143</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>-35.43046401081915,174.43121646717154</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>-35.43113675127618,174.43139537386688</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>-35.42905864550716,174.43144683404086</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>-35.4297818658795,174.4313256270038</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>-35.43046564358326,174.4312797135544</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>-35.43113183392895,174.43143801946084</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>-35.42906100857035,174.43145453455375</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>-35.4297793929805,174.43131508908866</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>-35.430465379273826,174.43126947523643</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>-35.43113460910885,174.43141395178617</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0071/nzd0071.xlsx
+++ b/data/nzd0071/nzd0071.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F369"/>
+  <dimension ref="A1:F372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9131,6 +9131,78 @@
         <v>393.0566666666667</v>
       </c>
       <c r="F369" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>356.5466666666667</v>
+      </c>
+      <c r="C370" t="n">
+        <v>373.9629411764706</v>
+      </c>
+      <c r="D370" t="n">
+        <v>385.86</v>
+      </c>
+      <c r="E370" t="n">
+        <v>398.7433333333333</v>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>353.97</v>
+      </c>
+      <c r="C371" t="n">
+        <v>371.7117647058824</v>
+      </c>
+      <c r="D371" t="n">
+        <v>385.64</v>
+      </c>
+      <c r="E371" t="n">
+        <v>390.62</v>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>356.0833333333333</v>
+      </c>
+      <c r="C372" t="n">
+        <v>373.0723529411765</v>
+      </c>
+      <c r="D372" t="n">
+        <v>379.12</v>
+      </c>
+      <c r="E372" t="n">
+        <v>391.6466666666666</v>
+      </c>
+      <c r="F372" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9147,7 +9219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B394"/>
+  <dimension ref="A1:B397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13095,6 +13167,36 @@
       </c>
       <c r="B394" t="n">
         <v>0.44</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>-0.52</v>
       </c>
     </row>
   </sheetData>
@@ -13268,28 +13370,28 @@
         <v>0.0625</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07952168159878405</v>
+        <v>0.05358531058715268</v>
       </c>
       <c r="J2" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K2" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00513453263798358</v>
+        <v>0.002316654012566866</v>
       </c>
       <c r="M2" t="n">
-        <v>6.21172370466658</v>
+        <v>6.270360705572688</v>
       </c>
       <c r="N2" t="n">
-        <v>64.77528982708451</v>
+        <v>66.04294489835509</v>
       </c>
       <c r="O2" t="n">
-        <v>8.048309749698038</v>
+        <v>8.126681050610703</v>
       </c>
       <c r="P2" t="n">
-        <v>367.9345609125701</v>
+        <v>368.2026026867529</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13346,28 +13448,28 @@
         <v>0.097</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06707084808633176</v>
+        <v>0.05714277445928519</v>
       </c>
       <c r="J3" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K3" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004597360718431087</v>
+        <v>0.003382668980704495</v>
       </c>
       <c r="M3" t="n">
-        <v>5.593991696251471</v>
+        <v>5.588396058980275</v>
       </c>
       <c r="N3" t="n">
-        <v>51.27352600033398</v>
+        <v>51.13876894930885</v>
       </c>
       <c r="O3" t="n">
-        <v>7.160553470251722</v>
+        <v>7.151137598264269</v>
       </c>
       <c r="P3" t="n">
-        <v>377.1087644990005</v>
+        <v>377.2112071488703</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13424,28 +13526,28 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09543294982305191</v>
+        <v>0.08844531437414956</v>
       </c>
       <c r="J4" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K4" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008725585896797949</v>
+        <v>0.00761083109487648</v>
       </c>
       <c r="M4" t="n">
-        <v>5.57668945393532</v>
+        <v>5.564634692760976</v>
       </c>
       <c r="N4" t="n">
-        <v>53.92831298878181</v>
+        <v>53.69666836126826</v>
       </c>
       <c r="O4" t="n">
-        <v>7.343589925151173</v>
+        <v>7.327801059067328</v>
       </c>
       <c r="P4" t="n">
-        <v>385.1799090501212</v>
+        <v>385.2523484328544</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13502,28 +13604,28 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06489131034889163</v>
+        <v>0.07366548410780147</v>
       </c>
       <c r="J5" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K5" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004489725997087968</v>
+        <v>0.005847724479422167</v>
       </c>
       <c r="M5" t="n">
-        <v>5.469527956625567</v>
+        <v>5.468512811271194</v>
       </c>
       <c r="N5" t="n">
-        <v>48.85352453318011</v>
+        <v>48.76608085639294</v>
       </c>
       <c r="O5" t="n">
-        <v>6.989529636047057</v>
+        <v>6.983271500979533</v>
       </c>
       <c r="P5" t="n">
-        <v>386.8685782394018</v>
+        <v>386.7781408051146</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13561,7 +13663,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F369"/>
+  <dimension ref="A1:F372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25049,6 +25151,102 @@
         </is>
       </c>
     </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>-35.42904873962517,174.4314145537705</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>-35.429770414829285,174.43127682998468</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>-35.4304641856075,174.431223237672</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>-35.43112745735158,174.43147597512535</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>-35.429040584936125,174.43138798013518</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>-35.42976482156492,174.43125299512127</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>-35.43046412308162,174.43122081570434</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>-35.43113767353913,174.43138737554514</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>-35.429047273258504,174.43140977532858</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>-35.429768202077774,174.4312674006707</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>-35.43046227002014,174.43114903739152</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>-35.43113638237085,174.43139857319554</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0071/nzd0071.xlsx
+++ b/data/nzd0071/nzd0071.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F372"/>
+  <dimension ref="A1:F373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9203,6 +9203,30 @@
         <v>391.6466666666666</v>
       </c>
       <c r="F372" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>366.1266666666667</v>
+      </c>
+      <c r="C373" t="n">
+        <v>373.7270588235294</v>
+      </c>
+      <c r="D373" t="n">
+        <v>387.395</v>
+      </c>
+      <c r="E373" t="n">
+        <v>393.5233333333334</v>
+      </c>
+      <c r="F373" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9219,7 +9243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B397"/>
+  <dimension ref="A1:B398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13197,6 +13221,16 @@
       </c>
       <c r="B397" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -13370,28 +13404,28 @@
         <v>0.0625</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05358531058715268</v>
+        <v>0.05150803048001291</v>
       </c>
       <c r="J2" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K2" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002316654012566866</v>
+        <v>0.002153453363783586</v>
       </c>
       <c r="M2" t="n">
-        <v>6.270360705572688</v>
+        <v>6.2608351137215</v>
       </c>
       <c r="N2" t="n">
-        <v>66.04294489835509</v>
+        <v>65.88000189739179</v>
       </c>
       <c r="O2" t="n">
-        <v>8.126681050610703</v>
+        <v>8.116649671963907</v>
       </c>
       <c r="P2" t="n">
-        <v>368.2026026867529</v>
+        <v>368.2241780176004</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13448,28 +13482,28 @@
         <v>0.097</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05714277445928519</v>
+        <v>0.05436531475981108</v>
       </c>
       <c r="J3" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K3" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003382668980704495</v>
+        <v>0.003077155976570989</v>
       </c>
       <c r="M3" t="n">
-        <v>5.588396058980275</v>
+        <v>5.584474358411486</v>
       </c>
       <c r="N3" t="n">
-        <v>51.13876894930885</v>
+        <v>51.06482585752376</v>
       </c>
       <c r="O3" t="n">
-        <v>7.151137598264269</v>
+        <v>7.145965705034119</v>
       </c>
       <c r="P3" t="n">
-        <v>377.2112071488703</v>
+        <v>377.2400062042718</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13526,28 +13560,28 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08844531437414956</v>
+        <v>0.08835329040145203</v>
       </c>
       <c r="J4" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K4" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00761083109487648</v>
+        <v>0.007641288077905872</v>
       </c>
       <c r="M4" t="n">
-        <v>5.564634692760976</v>
+        <v>5.549585575957741</v>
       </c>
       <c r="N4" t="n">
-        <v>53.69666836126826</v>
+        <v>53.54716847751324</v>
       </c>
       <c r="O4" t="n">
-        <v>7.327801059067328</v>
+        <v>7.317593079525073</v>
       </c>
       <c r="P4" t="n">
-        <v>385.2523484328544</v>
+        <v>385.2533065454671</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13604,28 +13638,28 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07366548410780147</v>
+        <v>0.07642907089707787</v>
       </c>
       <c r="J5" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K5" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005847724479422167</v>
+        <v>0.006322471456359335</v>
       </c>
       <c r="M5" t="n">
-        <v>5.468512811271194</v>
+        <v>5.467646822048571</v>
       </c>
       <c r="N5" t="n">
-        <v>48.76608085639294</v>
+        <v>48.6937051026654</v>
       </c>
       <c r="O5" t="n">
-        <v>6.983271500979533</v>
+        <v>6.978087496059747</v>
       </c>
       <c r="P5" t="n">
-        <v>386.7781408051146</v>
+        <v>386.7495047689424</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13663,7 +13697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F372"/>
+  <dimension ref="A1:F373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25247,6 +25281,38 @@
         </is>
       </c>
     </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>-35.4290790585588,174.43151335411088</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>-35.429769828757124,174.4312743325243</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>-35.43046462186618,174.43124013640082</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>-35.43113402221319,174.4314190416269</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0071/nzd0071.xlsx
+++ b/data/nzd0071/nzd0071.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F373"/>
+  <dimension ref="A1:F374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9227,6 +9227,30 @@
         <v>393.5233333333334</v>
       </c>
       <c r="F373" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>351.03</v>
+      </c>
+      <c r="C374" t="n">
+        <v>368.3923529411765</v>
+      </c>
+      <c r="D374" t="n">
+        <v>378.225</v>
+      </c>
+      <c r="E374" t="n">
+        <v>390.18</v>
+      </c>
+      <c r="F374" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9243,7 +9267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B398"/>
+  <dimension ref="A1:B399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13231,6 +13255,16 @@
       </c>
       <c r="B398" t="n">
         <v>-0.71</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -13697,7 +13731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F373"/>
+  <dimension ref="A1:F374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25313,6 +25347,38 @@
         </is>
       </c>
     </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>-35.42903128035479,174.43135765938294</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>-35.429756574158525,174.43121785006977</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>-35.43046201564717,174.43113918438704</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>-35.43113822689664,174.43138257655198</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0071/nzd0071.xlsx
+++ b/data/nzd0071/nzd0071.xlsx
@@ -13438,28 +13438,28 @@
         <v>0.0625</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05150803048001291</v>
+        <v>0.04047657915627294</v>
       </c>
       <c r="J2" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K2" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002153453363783586</v>
+        <v>0.00131891917038518</v>
       </c>
       <c r="M2" t="n">
-        <v>6.2608351137215</v>
+        <v>6.293077553024307</v>
       </c>
       <c r="N2" t="n">
-        <v>65.88000189739179</v>
+        <v>66.70463210552296</v>
       </c>
       <c r="O2" t="n">
-        <v>8.116649671963907</v>
+        <v>8.167290377201178</v>
       </c>
       <c r="P2" t="n">
-        <v>368.2241780176004</v>
+        <v>368.3389820780532</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13516,28 +13516,28 @@
         <v>0.097</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05436531475981108</v>
+        <v>0.04865858968424086</v>
       </c>
       <c r="J3" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K3" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003077155976570989</v>
+        <v>0.002467375274659678</v>
       </c>
       <c r="M3" t="n">
-        <v>5.584474358411486</v>
+        <v>5.592852249842101</v>
       </c>
       <c r="N3" t="n">
-        <v>51.06482585752376</v>
+        <v>51.21282058930859</v>
       </c>
       <c r="O3" t="n">
-        <v>7.145965705034119</v>
+        <v>7.156313337837338</v>
       </c>
       <c r="P3" t="n">
-        <v>377.2400062042718</v>
+        <v>377.2992938724116</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13594,28 +13594,28 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08835329040145203</v>
+        <v>0.08309591265304378</v>
       </c>
       <c r="J4" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K4" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007641288077905872</v>
+        <v>0.006775719165633798</v>
       </c>
       <c r="M4" t="n">
-        <v>5.549585575957741</v>
+        <v>5.559938953327459</v>
       </c>
       <c r="N4" t="n">
-        <v>53.54716847751324</v>
+        <v>53.63835337291194</v>
       </c>
       <c r="O4" t="n">
-        <v>7.317593079525073</v>
+        <v>7.32382095445485</v>
       </c>
       <c r="P4" t="n">
-        <v>385.2533065454671</v>
+        <v>385.3081492368945</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13672,28 +13672,28 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07642907089707787</v>
+        <v>0.07724694615069068</v>
       </c>
       <c r="J5" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K5" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006322471456359335</v>
+        <v>0.0064967071761447</v>
       </c>
       <c r="M5" t="n">
-        <v>5.467646822048571</v>
+        <v>5.456648924945664</v>
       </c>
       <c r="N5" t="n">
-        <v>48.6937051026654</v>
+        <v>48.56265811945644</v>
       </c>
       <c r="O5" t="n">
-        <v>6.978087496059747</v>
+        <v>6.968691277381747</v>
       </c>
       <c r="P5" t="n">
-        <v>386.7495047689424</v>
+        <v>386.7410137462036</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">

--- a/data/nzd0071/nzd0071.xlsx
+++ b/data/nzd0071/nzd0071.xlsx
@@ -13429,13 +13429,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.055</v>
+        <v>0.0733</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0625</v>
+        <v>0.0951</v>
       </c>
       <c r="I2" t="n">
         <v>0.04047521327467692</v>
@@ -13507,13 +13507,13 @@
         <v>0.3323661505683981</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0791</v>
+        <v>0.1187</v>
       </c>
       <c r="H3" t="n">
-        <v>0.097</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>0.04863677951426739</v>
@@ -13585,13 +13585,13 @@
         <v>0.6685010168192256</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0736</v>
+        <v>0.1336</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>0.08311132692764682</v>
@@ -13663,13 +13663,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0702</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08019999999999999</v>
+        <v>0.1099</v>
       </c>
       <c r="I5" t="n">
         <v>0.0772413420776267</v>
